--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_118.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_118.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,583 +488,592 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:42.880000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:16.720000', '0:00:26.460000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:07.820000'), ('0:00:55.680000', '0:01:02.280000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1964285714285714</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A/b7']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(32.351768, 40.095623)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(26.08399, 30.414512)]</t>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3888888888888888</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['C', 'F/5', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[['B', 'E/5', 'B', 'B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(68.64, 83.84)]</t>
+          <t>[('0:00:05.121000', '0:00:13.333000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.625147', '0:01:07.541609')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'F#:7', 'B:maj', 'D#:7/A#', 'A:(3,5)', 'C#:maj', 'A#:(3,5,b7,b9)', 'D#:min/G#', 'F#:maj/G#', 'G#:7', 'C#:maj', 'C#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.42, 26.46)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.3, 4.8)]</t>
+          <t>[('0:00:00.480000', '0:00:35.060000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(4.76, 118.78)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(5.44, 113.76)]</t>
+          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:03.240000', '0:01:04.620000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3860294117647059</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3)]</t>
+          <t>[('0:00:00.820000', '0:00:06.760000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0882943143812709</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj', 'G:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(3.34, 6.82)]</t>
+          <t>[['F', 'F/7', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:00:10.460000', '0:00:19.060000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:15.300272', '0:00:18.887755')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1583850931677019</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'D:min', 'D:min/b7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B', 'E:min', 'E:min/b7', 'C']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(41.144081, 44.232335)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(106.448253, 111.022585)]</t>
+          <t>[('0:00:23.460000', '0:00:26.480000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:26.200000', '0:00:33.960000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:04.860000', '0:00:07.560000'), ('0:00:02.360000', '0:00:05.680000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -1068,135 +1082,92 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.141025641025641</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(51.28, 62.78)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(25.26, 36.1)]</t>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:02:02.780000', '0:02:05')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(41.3, 43.48)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(18.64, 28.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
